--- a/tests/testthat/testdata/completetestset.xlsx
+++ b/tests/testthat/testdata/completetestset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phuongq\Documents\Rworkspace\daiquiri\tests\testthat\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pquan\Documents\Rworkspace\daiquiri\tests\testthat\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA9C6CF-E090-41CD-B836-A111BCEA3AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12900" windowHeight="8040"/>
+    <workbookView xWindow="1140" yWindow="1540" windowWidth="23650" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="completetestset" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="completetestset" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\phuongq\Documents\Rworkspace\daiquiri\tests\testthat\testdata\completetestset.csv" tab="0" comma="1">
       <textFields count="12">
         <textField type="text"/>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8216" uniqueCount="2234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8231" uniqueCount="2239">
   <si>
     <t>col_timepoint</t>
   </si>
@@ -6753,12 +6754,27 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>col_numeric_missing</t>
+  </si>
+  <si>
+    <t>col_numeric_missing_err</t>
+  </si>
+  <si>
+    <t>nonconformant</t>
+  </si>
+  <si>
+    <t>not a number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6812,7 +6828,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="completetestset" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="completetestset" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7077,42 +7093,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X901"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z901"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A881" workbookViewId="0">
-      <selection activeCell="A897" sqref="A897"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7:Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" customWidth="1"/>
+    <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.26953125" customWidth="1"/>
+    <col min="18" max="18" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.1796875" customWidth="1"/>
+    <col min="20" max="20" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.81640625" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2200</v>
       </c>
@@ -7185,8 +7202,14 @@
       <c r="X1" t="s">
         <v>2222</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2190</v>
       </c>
@@ -7227,7 +7250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2231</v>
       </c>
@@ -7271,7 +7294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2233</v>
       </c>
@@ -7315,7 +7338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2191</v>
       </c>
@@ -7359,7 +7382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2192</v>
       </c>
@@ -7403,7 +7426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2191</v>
       </c>
@@ -7459,8 +7482,14 @@
       <c r="X7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" t="s">
+        <v>2237</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -7513,8 +7542,14 @@
       <c r="X8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" t="s">
+        <v>2237</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -7567,8 +7602,14 @@
       <c r="X9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" t="s">
+        <v>2237</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
@@ -7619,8 +7660,14 @@
       <c r="X10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" t="s">
+        <v>2237</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
@@ -7672,7 +7719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
@@ -7725,7 +7772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
@@ -7775,7 +7822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
@@ -7822,7 +7869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
@@ -7866,7 +7913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>67</v>
       </c>
@@ -7910,7 +7957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
@@ -7951,7 +7998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>78</v>
       </c>
@@ -7992,7 +8039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>83</v>
       </c>
@@ -8033,7 +8080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>88</v>
       </c>
@@ -8074,7 +8121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>91</v>
       </c>
@@ -8115,7 +8162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>94</v>
       </c>
@@ -8156,7 +8203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>97</v>
       </c>
@@ -8197,7 +8244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>100</v>
       </c>
@@ -8235,7 +8282,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>101</v>
       </c>
@@ -8273,7 +8320,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>102</v>
       </c>
@@ -8311,7 +8358,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>103</v>
       </c>
@@ -8349,7 +8396,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>104</v>
       </c>
@@ -8387,7 +8434,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>105</v>
       </c>
@@ -8458,7 +8505,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>107</v>
       </c>
@@ -8529,7 +8576,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>108</v>
       </c>
@@ -8570,7 +8617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>110</v>
       </c>
@@ -8611,7 +8658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>114</v>
       </c>
@@ -8652,7 +8699,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>2234</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>116</v>
       </c>
@@ -8693,7 +8743,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>2234</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>116</v>
       </c>
@@ -8734,7 +8787,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>2234</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>116</v>
       </c>
@@ -8775,7 +8831,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>2234</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>116</v>
       </c>
@@ -8816,7 +8875,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>2234</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>116</v>
       </c>
@@ -8857,7 +8919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
         <v>120</v>
       </c>
@@ -8898,7 +8960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>122</v>
       </c>
@@ -8939,7 +9001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>124</v>
       </c>
@@ -8980,7 +9042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>128</v>
       </c>
@@ -9021,7 +9083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>130</v>
       </c>
@@ -9062,7 +9124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -9103,7 +9165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>136</v>
       </c>
@@ -9144,7 +9206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -9185,7 +9247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
         <v>140</v>
       </c>
@@ -9226,7 +9288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -9267,7 +9329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
         <v>146</v>
       </c>
@@ -9308,7 +9370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B50" s="1" t="s">
         <v>149</v>
       </c>
@@ -9349,7 +9411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
         <v>154</v>
       </c>
@@ -9390,7 +9452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
         <v>157</v>
       </c>
@@ -9431,7 +9493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>160</v>
       </c>
@@ -9472,7 +9534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>165</v>
       </c>
@@ -9513,7 +9575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
         <v>167</v>
       </c>
@@ -9554,7 +9616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>169</v>
       </c>
@@ -9595,7 +9657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
         <v>173</v>
       </c>
@@ -9636,7 +9698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B58" s="1" t="s">
         <v>175</v>
       </c>
@@ -9677,7 +9739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -9718,7 +9780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B60" s="1" t="s">
         <v>181</v>
       </c>
@@ -9759,7 +9821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
         <v>183</v>
       </c>
@@ -9800,7 +9862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B62" s="1" t="s">
         <v>185</v>
       </c>
@@ -9841,7 +9903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B63" s="1" t="s">
         <v>189</v>
       </c>
@@ -9882,7 +9944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
         <v>191</v>
       </c>
@@ -9923,7 +9985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="s">
         <v>193</v>
       </c>
@@ -9964,7 +10026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
         <v>197</v>
       </c>
@@ -10005,7 +10067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
         <v>199</v>
       </c>
@@ -10046,7 +10108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
         <v>201</v>
       </c>
@@ -10087,7 +10149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
         <v>205</v>
       </c>
@@ -10128,7 +10190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B70" s="1" t="s">
         <v>207</v>
       </c>
@@ -10169,7 +10231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B71" s="1" t="s">
         <v>209</v>
       </c>
@@ -10210,7 +10272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B72" s="1" t="s">
         <v>213</v>
       </c>
@@ -10251,7 +10313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B73" s="1" t="s">
         <v>215</v>
       </c>
@@ -10292,7 +10354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B74" s="1" t="s">
         <v>217</v>
       </c>
@@ -10333,7 +10395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B75" s="1" t="s">
         <v>221</v>
       </c>
@@ -10374,7 +10436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B76" s="1" t="s">
         <v>223</v>
       </c>
@@ -10415,7 +10477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B77" s="1" t="s">
         <v>225</v>
       </c>
@@ -10456,7 +10518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B78" s="1" t="s">
         <v>229</v>
       </c>
@@ -10497,7 +10559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B79" s="1" t="s">
         <v>231</v>
       </c>
@@ -10538,7 +10600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
         <v>233</v>
       </c>
@@ -10579,7 +10641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
         <v>237</v>
       </c>
@@ -10620,7 +10682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
         <v>239</v>
       </c>
@@ -10661,7 +10723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
         <v>241</v>
       </c>
@@ -10702,7 +10764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B84" s="1" t="s">
         <v>245</v>
       </c>
@@ -10743,7 +10805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B85" s="1" t="s">
         <v>247</v>
       </c>
@@ -10784,7 +10846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B86" s="1" t="s">
         <v>249</v>
       </c>
@@ -10825,7 +10887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B87" s="1" t="s">
         <v>253</v>
       </c>
@@ -10866,7 +10928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B88" s="1" t="s">
         <v>255</v>
       </c>
@@ -10907,7 +10969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B89" s="1" t="s">
         <v>257</v>
       </c>
@@ -10948,7 +11010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B90" s="1" t="s">
         <v>261</v>
       </c>
@@ -10989,7 +11051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B91" s="1" t="s">
         <v>263</v>
       </c>
@@ -11030,7 +11092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B92" s="1" t="s">
         <v>265</v>
       </c>
@@ -11071,7 +11133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B93" s="1" t="s">
         <v>269</v>
       </c>
@@ -11112,7 +11174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B94" s="1" t="s">
         <v>271</v>
       </c>
@@ -11153,7 +11215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B95" s="1" t="s">
         <v>273</v>
       </c>
@@ -11194,7 +11256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
         <v>277</v>
       </c>
@@ -11235,7 +11297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B97" s="1" t="s">
         <v>279</v>
       </c>
@@ -11276,7 +11338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B98" s="1" t="s">
         <v>281</v>
       </c>
@@ -11317,7 +11379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B99" s="1" t="s">
         <v>285</v>
       </c>
@@ -11358,7 +11420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B100" s="1" t="s">
         <v>287</v>
       </c>
@@ -11399,7 +11461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
         <v>289</v>
       </c>
@@ -11440,7 +11502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B102" s="1" t="s">
         <v>293</v>
       </c>
@@ -11481,7 +11543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B103" s="1" t="s">
         <v>295</v>
       </c>
@@ -11522,7 +11584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B104" s="1" t="s">
         <v>297</v>
       </c>
@@ -11563,7 +11625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B105" s="1" t="s">
         <v>301</v>
       </c>
@@ -11604,7 +11666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B106" s="1" t="s">
         <v>303</v>
       </c>
@@ -11645,7 +11707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B107" s="1" t="s">
         <v>305</v>
       </c>
@@ -11686,7 +11748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B108" s="1" t="s">
         <v>309</v>
       </c>
@@ -11727,7 +11789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B109" s="1" t="s">
         <v>311</v>
       </c>
@@ -11768,7 +11830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B110" s="1" t="s">
         <v>313</v>
       </c>
@@ -11809,7 +11871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B111" s="1" t="s">
         <v>317</v>
       </c>
@@ -11850,7 +11912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B112" s="1" t="s">
         <v>319</v>
       </c>
@@ -11891,7 +11953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B113" s="1" t="s">
         <v>321</v>
       </c>
@@ -11932,7 +11994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B114" s="1" t="s">
         <v>325</v>
       </c>
@@ -11973,7 +12035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B115" s="1" t="s">
         <v>327</v>
       </c>
@@ -12014,7 +12076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B116" s="1" t="s">
         <v>329</v>
       </c>
@@ -12055,7 +12117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B117" s="1" t="s">
         <v>333</v>
       </c>
@@ -12096,7 +12158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B118" s="1" t="s">
         <v>335</v>
       </c>
@@ -12137,7 +12199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B119" s="1" t="s">
         <v>337</v>
       </c>
@@ -12178,7 +12240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B120" s="1" t="s">
         <v>341</v>
       </c>
@@ -12219,7 +12281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B121" s="1" t="s">
         <v>343</v>
       </c>
@@ -12260,7 +12322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B122" s="1" t="s">
         <v>345</v>
       </c>
@@ -12301,7 +12363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B123" s="1" t="s">
         <v>349</v>
       </c>
@@ -12342,7 +12404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B124" s="1" t="s">
         <v>351</v>
       </c>
@@ -12383,7 +12445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B125" s="1" t="s">
         <v>353</v>
       </c>
@@ -12424,7 +12486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B126" s="1" t="s">
         <v>357</v>
       </c>
@@ -12465,7 +12527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B127" s="1" t="s">
         <v>359</v>
       </c>
@@ -12506,7 +12568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B128" s="1" t="s">
         <v>361</v>
       </c>
@@ -12547,7 +12609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B129" s="1" t="s">
         <v>365</v>
       </c>
@@ -12588,7 +12650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B130" s="1" t="s">
         <v>367</v>
       </c>
@@ -12629,7 +12691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B131" s="1" t="s">
         <v>369</v>
       </c>
@@ -12670,7 +12732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B132" s="1" t="s">
         <v>373</v>
       </c>
@@ -12711,7 +12773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B133" s="1" t="s">
         <v>375</v>
       </c>
@@ -12752,7 +12814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B134" s="1" t="s">
         <v>377</v>
       </c>
@@ -12793,7 +12855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B135" s="1" t="s">
         <v>381</v>
       </c>
@@ -12834,7 +12896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B136" s="1" t="s">
         <v>383</v>
       </c>
@@ -12875,7 +12937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B137" s="1" t="s">
         <v>385</v>
       </c>
@@ -12916,7 +12978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B138" s="1" t="s">
         <v>389</v>
       </c>
@@ -12957,7 +13019,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B139" s="1" t="s">
         <v>391</v>
       </c>
@@ -12998,7 +13060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B140" s="1" t="s">
         <v>393</v>
       </c>
@@ -13039,7 +13101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B141" s="1" t="s">
         <v>397</v>
       </c>
@@ -13080,7 +13142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B142" s="1" t="s">
         <v>399</v>
       </c>
@@ -13121,7 +13183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B143" s="1" t="s">
         <v>401</v>
       </c>
@@ -13162,7 +13224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B144" s="1" t="s">
         <v>405</v>
       </c>
@@ -13203,7 +13265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B145" s="1" t="s">
         <v>407</v>
       </c>
@@ -13244,7 +13306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B146" s="1" t="s">
         <v>409</v>
       </c>
@@ -13285,7 +13347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B147" s="1" t="s">
         <v>413</v>
       </c>
@@ -13326,7 +13388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B148" s="1" t="s">
         <v>415</v>
       </c>
@@ -13367,7 +13429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B149" s="1" t="s">
         <v>417</v>
       </c>
@@ -13408,7 +13470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B150" s="1" t="s">
         <v>421</v>
       </c>
@@ -13449,7 +13511,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B151" s="1" t="s">
         <v>423</v>
       </c>
@@ -13490,7 +13552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B152" s="1" t="s">
         <v>425</v>
       </c>
@@ -13531,7 +13593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B153" s="1" t="s">
         <v>429</v>
       </c>
@@ -13572,7 +13634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B154" s="1" t="s">
         <v>431</v>
       </c>
@@ -13613,7 +13675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B155" s="1" t="s">
         <v>433</v>
       </c>
@@ -13654,7 +13716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B156" s="1" t="s">
         <v>437</v>
       </c>
@@ -13695,7 +13757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B157" s="1" t="s">
         <v>439</v>
       </c>
@@ -13736,7 +13798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B158" s="1" t="s">
         <v>441</v>
       </c>
@@ -13777,7 +13839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B159" s="1" t="s">
         <v>445</v>
       </c>
@@ -13818,7 +13880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B160" s="1" t="s">
         <v>447</v>
       </c>
@@ -13859,7 +13921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B161" s="1" t="s">
         <v>449</v>
       </c>
@@ -13900,7 +13962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B162" s="1" t="s">
         <v>453</v>
       </c>
@@ -13941,7 +14003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B163" s="1" t="s">
         <v>455</v>
       </c>
@@ -13982,7 +14044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B164" s="1" t="s">
         <v>457</v>
       </c>
@@ -14023,7 +14085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B165" s="1" t="s">
         <v>461</v>
       </c>
@@ -14064,7 +14126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B166" s="1" t="s">
         <v>463</v>
       </c>
@@ -14105,7 +14167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B167" s="1" t="s">
         <v>465</v>
       </c>
@@ -14146,7 +14208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B168" s="1" t="s">
         <v>469</v>
       </c>
@@ -14187,7 +14249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B169" s="1" t="s">
         <v>471</v>
       </c>
@@ -14228,7 +14290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B170" s="1" t="s">
         <v>473</v>
       </c>
@@ -14269,7 +14331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B171" s="1" t="s">
         <v>477</v>
       </c>
@@ -14310,7 +14372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B172" s="1" t="s">
         <v>479</v>
       </c>
@@ -14351,7 +14413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B173" s="1" t="s">
         <v>481</v>
       </c>
@@ -14392,7 +14454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B174" s="1" t="s">
         <v>485</v>
       </c>
@@ -14433,7 +14495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B175" s="1" t="s">
         <v>487</v>
       </c>
@@ -14474,7 +14536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B176" s="1" t="s">
         <v>489</v>
       </c>
@@ -14515,7 +14577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B177" s="1" t="s">
         <v>493</v>
       </c>
@@ -14556,7 +14618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B178" s="1" t="s">
         <v>495</v>
       </c>
@@ -14597,7 +14659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B179" s="1" t="s">
         <v>497</v>
       </c>
@@ -14638,7 +14700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B180" s="1" t="s">
         <v>501</v>
       </c>
@@ -14679,7 +14741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B181" s="1" t="s">
         <v>503</v>
       </c>
@@ -14720,7 +14782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B182" s="1" t="s">
         <v>505</v>
       </c>
@@ -14761,7 +14823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B183" s="1" t="s">
         <v>509</v>
       </c>
@@ -14802,7 +14864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B184" s="1" t="s">
         <v>511</v>
       </c>
@@ -14843,7 +14905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B185" s="1" t="s">
         <v>513</v>
       </c>
@@ -14884,7 +14946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B186" s="1" t="s">
         <v>517</v>
       </c>
@@ -14925,7 +14987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B187" s="1" t="s">
         <v>519</v>
       </c>
@@ -14966,7 +15028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B188" s="1" t="s">
         <v>521</v>
       </c>
@@ -15007,7 +15069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B189" s="1" t="s">
         <v>525</v>
       </c>
@@ -15048,7 +15110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B190" s="1" t="s">
         <v>527</v>
       </c>
@@ -15089,7 +15151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B191" s="1" t="s">
         <v>529</v>
       </c>
@@ -15130,7 +15192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B192" s="1" t="s">
         <v>533</v>
       </c>
@@ -15171,7 +15233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B193" s="1" t="s">
         <v>535</v>
       </c>
@@ -15212,7 +15274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B194" s="1" t="s">
         <v>537</v>
       </c>
@@ -15253,7 +15315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B195" s="1" t="s">
         <v>541</v>
       </c>
@@ -15294,7 +15356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B196" s="1" t="s">
         <v>543</v>
       </c>
@@ -15335,7 +15397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B197" s="1" t="s">
         <v>545</v>
       </c>
@@ -15376,7 +15438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B198" s="1" t="s">
         <v>549</v>
       </c>
@@ -15417,7 +15479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B199" s="1" t="s">
         <v>551</v>
       </c>
@@ -15458,7 +15520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B200" s="1" t="s">
         <v>553</v>
       </c>
@@ -15499,7 +15561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B201" s="1" t="s">
         <v>557</v>
       </c>
@@ -15540,7 +15602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B202" s="1" t="s">
         <v>559</v>
       </c>
@@ -15581,7 +15643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B203" s="1" t="s">
         <v>561</v>
       </c>
@@ -15622,7 +15684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B204" s="1" t="s">
         <v>565</v>
       </c>
@@ -15663,7 +15725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B205" s="1" t="s">
         <v>567</v>
       </c>
@@ -15704,7 +15766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B206" s="1" t="s">
         <v>569</v>
       </c>
@@ -15745,7 +15807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B207" s="1" t="s">
         <v>573</v>
       </c>
@@ -15786,7 +15848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B208" s="1" t="s">
         <v>575</v>
       </c>
@@ -15827,7 +15889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B209" s="1" t="s">
         <v>577</v>
       </c>
@@ -15868,7 +15930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B210" s="1" t="s">
         <v>581</v>
       </c>
@@ -15909,7 +15971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B211" s="1" t="s">
         <v>583</v>
       </c>
@@ -15950,7 +16012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B212" s="1" t="s">
         <v>585</v>
       </c>
@@ -15991,7 +16053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B213" s="1" t="s">
         <v>589</v>
       </c>
@@ -16032,7 +16094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B214" s="1" t="s">
         <v>591</v>
       </c>
@@ -16073,7 +16135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B215" s="1" t="s">
         <v>593</v>
       </c>
@@ -16114,7 +16176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B216" s="1" t="s">
         <v>597</v>
       </c>
@@ -16155,7 +16217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B217" s="1" t="s">
         <v>599</v>
       </c>
@@ -16196,7 +16258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B218" s="1" t="s">
         <v>601</v>
       </c>
@@ -16237,7 +16299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B219" s="1" t="s">
         <v>605</v>
       </c>
@@ -16278,7 +16340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B220" s="1" t="s">
         <v>607</v>
       </c>
@@ -16319,7 +16381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B221" s="1" t="s">
         <v>609</v>
       </c>
@@ -16360,7 +16422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B222" s="1" t="s">
         <v>613</v>
       </c>
@@ -16401,7 +16463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B223" s="1" t="s">
         <v>615</v>
       </c>
@@ -16442,7 +16504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B224" s="1" t="s">
         <v>617</v>
       </c>
@@ -16483,7 +16545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B225" s="1" t="s">
         <v>621</v>
       </c>
@@ -16524,7 +16586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B226" s="1" t="s">
         <v>623</v>
       </c>
@@ -16565,7 +16627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B227" s="1" t="s">
         <v>625</v>
       </c>
@@ -16606,7 +16668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B228" s="1" t="s">
         <v>629</v>
       </c>
@@ -16647,7 +16709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B229" s="1" t="s">
         <v>631</v>
       </c>
@@ -16688,7 +16750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B230" s="1" t="s">
         <v>633</v>
       </c>
@@ -16729,7 +16791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B231" s="1" t="s">
         <v>637</v>
       </c>
@@ -16770,7 +16832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B232" s="1" t="s">
         <v>639</v>
       </c>
@@ -16811,7 +16873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B233" s="1" t="s">
         <v>641</v>
       </c>
@@ -16852,7 +16914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B234" s="1" t="s">
         <v>645</v>
       </c>
@@ -16893,7 +16955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B235" s="1" t="s">
         <v>647</v>
       </c>
@@ -16934,7 +16996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B236" s="1" t="s">
         <v>649</v>
       </c>
@@ -16975,7 +17037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B237" s="1" t="s">
         <v>653</v>
       </c>
@@ -17016,7 +17078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B238" s="1" t="s">
         <v>655</v>
       </c>
@@ -17057,7 +17119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B239" s="1" t="s">
         <v>657</v>
       </c>
@@ -17098,7 +17160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B240" s="1" t="s">
         <v>661</v>
       </c>
@@ -17139,7 +17201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B241" s="1" t="s">
         <v>663</v>
       </c>
@@ -17180,7 +17242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B242" s="1" t="s">
         <v>665</v>
       </c>
@@ -17221,7 +17283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B243" s="1" t="s">
         <v>669</v>
       </c>
@@ -17262,7 +17324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B244" s="1" t="s">
         <v>671</v>
       </c>
@@ -17303,7 +17365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B245" s="1" t="s">
         <v>673</v>
       </c>
@@ -17344,7 +17406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B246" s="1" t="s">
         <v>677</v>
       </c>
@@ -17385,7 +17447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B247" s="1" t="s">
         <v>679</v>
       </c>
@@ -17426,7 +17488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B248" s="1" t="s">
         <v>681</v>
       </c>
@@ -17467,7 +17529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B249" s="1" t="s">
         <v>685</v>
       </c>
@@ -17508,7 +17570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B250" s="1" t="s">
         <v>687</v>
       </c>
@@ -17549,7 +17611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B251" s="1" t="s">
         <v>689</v>
       </c>
@@ -17590,7 +17652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B252" s="1" t="s">
         <v>693</v>
       </c>
@@ -17631,7 +17693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B253" s="1" t="s">
         <v>695</v>
       </c>
@@ -17672,7 +17734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B254" s="1" t="s">
         <v>697</v>
       </c>
@@ -17713,7 +17775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B255" s="1" t="s">
         <v>701</v>
       </c>
@@ -17754,7 +17816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B256" s="1" t="s">
         <v>703</v>
       </c>
@@ -17795,7 +17857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B257" s="1" t="s">
         <v>705</v>
       </c>
@@ -17836,7 +17898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B258" s="1" t="s">
         <v>709</v>
       </c>
@@ -17877,7 +17939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B259" s="1" t="s">
         <v>711</v>
       </c>
@@ -17918,7 +17980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B260" s="1" t="s">
         <v>713</v>
       </c>
@@ -17959,7 +18021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B261" s="1" t="s">
         <v>717</v>
       </c>
@@ -18000,7 +18062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B262" s="1" t="s">
         <v>719</v>
       </c>
@@ -18041,7 +18103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B263" s="1" t="s">
         <v>721</v>
       </c>
@@ -18082,7 +18144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B264" s="1" t="s">
         <v>725</v>
       </c>
@@ -18123,7 +18185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B265" s="1" t="s">
         <v>727</v>
       </c>
@@ -18164,7 +18226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="266" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B266" s="1" t="s">
         <v>729</v>
       </c>
@@ -18205,7 +18267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="267" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B267" s="1" t="s">
         <v>733</v>
       </c>
@@ -18246,7 +18308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B268" s="1" t="s">
         <v>735</v>
       </c>
@@ -18287,7 +18349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B269" s="1" t="s">
         <v>737</v>
       </c>
@@ -18328,7 +18390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B270" s="1" t="s">
         <v>741</v>
       </c>
@@ -18369,7 +18431,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B271" s="1" t="s">
         <v>743</v>
       </c>
@@ -18410,7 +18472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B272" s="1" t="s">
         <v>745</v>
       </c>
@@ -18451,7 +18513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B273" s="1" t="s">
         <v>749</v>
       </c>
@@ -18492,7 +18554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B274" s="1" t="s">
         <v>751</v>
       </c>
@@ -18533,7 +18595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B275" s="1" t="s">
         <v>753</v>
       </c>
@@ -18574,7 +18636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B276" s="1" t="s">
         <v>757</v>
       </c>
@@ -18615,7 +18677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B277" s="1" t="s">
         <v>759</v>
       </c>
@@ -18656,7 +18718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B278" s="1" t="s">
         <v>761</v>
       </c>
@@ -18697,7 +18759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B279" s="1" t="s">
         <v>765</v>
       </c>
@@ -18738,7 +18800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B280" s="1" t="s">
         <v>767</v>
       </c>
@@ -18779,7 +18841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B281" s="1" t="s">
         <v>769</v>
       </c>
@@ -18820,7 +18882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B282" s="1" t="s">
         <v>773</v>
       </c>
@@ -18861,7 +18923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B283" s="1" t="s">
         <v>775</v>
       </c>
@@ -18902,7 +18964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B284" s="1" t="s">
         <v>777</v>
       </c>
@@ -18943,7 +19005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B285" s="1" t="s">
         <v>781</v>
       </c>
@@ -18984,7 +19046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B286" s="1" t="s">
         <v>783</v>
       </c>
@@ -19025,7 +19087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B287" s="1" t="s">
         <v>785</v>
       </c>
@@ -19066,7 +19128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B288" s="1" t="s">
         <v>789</v>
       </c>
@@ -19107,7 +19169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B289" s="1" t="s">
         <v>791</v>
       </c>
@@ -19148,7 +19210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B290" s="1" t="s">
         <v>793</v>
       </c>
@@ -19189,7 +19251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B291" s="1" t="s">
         <v>797</v>
       </c>
@@ -19230,7 +19292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B292" s="1" t="s">
         <v>799</v>
       </c>
@@ -19271,7 +19333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B293" s="1" t="s">
         <v>801</v>
       </c>
@@ -19312,7 +19374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B294" s="1" t="s">
         <v>805</v>
       </c>
@@ -19353,7 +19415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B295" s="1" t="s">
         <v>807</v>
       </c>
@@ -19394,7 +19456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B296" s="1" t="s">
         <v>809</v>
       </c>
@@ -19435,7 +19497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B297" s="1" t="s">
         <v>813</v>
       </c>
@@ -19476,7 +19538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="298" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B298" s="1" t="s">
         <v>815</v>
       </c>
@@ -19517,7 +19579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B299" s="1" t="s">
         <v>817</v>
       </c>
@@ -19558,7 +19620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B300" s="1" t="s">
         <v>821</v>
       </c>
@@ -19599,7 +19661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B301" s="1" t="s">
         <v>823</v>
       </c>
@@ -19640,7 +19702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B302" s="1" t="s">
         <v>825</v>
       </c>
@@ -19681,7 +19743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B303" s="1" t="s">
         <v>829</v>
       </c>
@@ -19722,7 +19784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B304" s="1" t="s">
         <v>831</v>
       </c>
@@ -19763,7 +19825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B305" s="1" t="s">
         <v>833</v>
       </c>
@@ -19804,7 +19866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B306" s="1" t="s">
         <v>837</v>
       </c>
@@ -19845,7 +19907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B307" s="1" t="s">
         <v>839</v>
       </c>
@@ -19886,7 +19948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B308" s="1" t="s">
         <v>841</v>
       </c>
@@ -19927,7 +19989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B309" s="1" t="s">
         <v>845</v>
       </c>
@@ -19968,7 +20030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B310" s="1" t="s">
         <v>847</v>
       </c>
@@ -20009,7 +20071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B311" s="1" t="s">
         <v>849</v>
       </c>
@@ -20050,7 +20112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B312" s="1" t="s">
         <v>853</v>
       </c>
@@ -20091,7 +20153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B313" s="1" t="s">
         <v>855</v>
       </c>
@@ -20132,7 +20194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="314" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B314" s="1" t="s">
         <v>857</v>
       </c>
@@ -20173,7 +20235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="315" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B315" s="1" t="s">
         <v>861</v>
       </c>
@@ -20214,7 +20276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="316" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B316" s="1" t="s">
         <v>863</v>
       </c>
@@ -20255,7 +20317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B317" s="1" t="s">
         <v>865</v>
       </c>
@@ -20296,7 +20358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B318" s="1" t="s">
         <v>869</v>
       </c>
@@ -20337,7 +20399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B319" s="1" t="s">
         <v>871</v>
       </c>
@@ -20378,7 +20440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B320" s="1" t="s">
         <v>873</v>
       </c>
@@ -20419,7 +20481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B321" s="1" t="s">
         <v>877</v>
       </c>
@@ -20460,7 +20522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B322" s="1" t="s">
         <v>879</v>
       </c>
@@ -20501,7 +20563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B323" s="1" t="s">
         <v>881</v>
       </c>
@@ -20542,7 +20604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B324" s="1" t="s">
         <v>885</v>
       </c>
@@ -20583,7 +20645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B325" s="1" t="s">
         <v>887</v>
       </c>
@@ -20624,7 +20686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B326" s="1" t="s">
         <v>889</v>
       </c>
@@ -20665,7 +20727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B327" s="1" t="s">
         <v>893</v>
       </c>
@@ -20706,7 +20768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B328" s="1" t="s">
         <v>895</v>
       </c>
@@ -20747,7 +20809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B329" s="1" t="s">
         <v>897</v>
       </c>
@@ -20788,7 +20850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B330" s="1" t="s">
         <v>901</v>
       </c>
@@ -20829,7 +20891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B331" s="1" t="s">
         <v>903</v>
       </c>
@@ -20870,7 +20932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B332" s="1" t="s">
         <v>905</v>
       </c>
@@ -20911,7 +20973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B333" s="1" t="s">
         <v>909</v>
       </c>
@@ -20952,7 +21014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B334" s="1" t="s">
         <v>911</v>
       </c>
@@ -20993,7 +21055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="335" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B335" s="1" t="s">
         <v>913</v>
       </c>
@@ -21034,7 +21096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B336" s="1" t="s">
         <v>917</v>
       </c>
@@ -21075,7 +21137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B337" s="1" t="s">
         <v>919</v>
       </c>
@@ -21116,7 +21178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B338" s="1" t="s">
         <v>921</v>
       </c>
@@ -21157,7 +21219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="339" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B339" s="1" t="s">
         <v>925</v>
       </c>
@@ -21198,7 +21260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B340" s="1" t="s">
         <v>927</v>
       </c>
@@ -21239,7 +21301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B341" s="1" t="s">
         <v>929</v>
       </c>
@@ -21280,7 +21342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B342" s="1" t="s">
         <v>933</v>
       </c>
@@ -21321,7 +21383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B343" s="1" t="s">
         <v>935</v>
       </c>
@@ -21362,7 +21424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B344" s="1" t="s">
         <v>937</v>
       </c>
@@ -21403,7 +21465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B345" s="1" t="s">
         <v>941</v>
       </c>
@@ -21444,7 +21506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="346" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B346" s="1" t="s">
         <v>943</v>
       </c>
@@ -21485,7 +21547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B347" s="1" t="s">
         <v>945</v>
       </c>
@@ -21526,7 +21588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="348" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B348" s="1" t="s">
         <v>949</v>
       </c>
@@ -21567,7 +21629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B349" s="1" t="s">
         <v>951</v>
       </c>
@@ -21608,7 +21670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B350" s="1" t="s">
         <v>953</v>
       </c>
@@ -21649,7 +21711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B351" s="1" t="s">
         <v>957</v>
       </c>
@@ -21690,7 +21752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="352" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B352" s="1" t="s">
         <v>959</v>
       </c>
@@ -21731,7 +21793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="353" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B353" s="1" t="s">
         <v>961</v>
       </c>
@@ -21772,7 +21834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="354" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B354" s="1" t="s">
         <v>965</v>
       </c>
@@ -21813,7 +21875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="355" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B355" s="1" t="s">
         <v>967</v>
       </c>
@@ -21854,7 +21916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B356" s="1" t="s">
         <v>969</v>
       </c>
@@ -21895,7 +21957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B357" s="1" t="s">
         <v>973</v>
       </c>
@@ -21936,7 +21998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B358" s="1" t="s">
         <v>975</v>
       </c>
@@ -21977,7 +22039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="359" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B359" s="1" t="s">
         <v>977</v>
       </c>
@@ -22018,7 +22080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="360" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B360" s="1" t="s">
         <v>981</v>
       </c>
@@ -22059,7 +22121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="361" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B361" s="1" t="s">
         <v>983</v>
       </c>
@@ -22100,7 +22162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B362" s="1" t="s">
         <v>985</v>
       </c>
@@ -22141,7 +22203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="363" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B363" s="1" t="s">
         <v>989</v>
       </c>
@@ -22182,7 +22244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="364" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B364" s="1" t="s">
         <v>991</v>
       </c>
@@ -22223,7 +22285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="365" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B365" s="1" t="s">
         <v>993</v>
       </c>
@@ -22264,7 +22326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="366" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B366" s="1" t="s">
         <v>997</v>
       </c>
@@ -22305,7 +22367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="367" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B367" s="1" t="s">
         <v>999</v>
       </c>
@@ -22346,7 +22408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="368" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B368" s="1" t="s">
         <v>1001</v>
       </c>
@@ -22387,7 +22449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B369" s="1" t="s">
         <v>1005</v>
       </c>
@@ -22428,7 +22490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="370" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B370" s="1" t="s">
         <v>1007</v>
       </c>
@@ -22469,7 +22531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="371" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B371" s="1" t="s">
         <v>1009</v>
       </c>
@@ -22510,7 +22572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="372" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B372" s="1" t="s">
         <v>1013</v>
       </c>
@@ -22551,7 +22613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="373" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B373" s="1" t="s">
         <v>1015</v>
       </c>
@@ -22592,7 +22654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="374" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B374" s="1" t="s">
         <v>1017</v>
       </c>
@@ -22633,7 +22695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B375" s="1" t="s">
         <v>1021</v>
       </c>
@@ -22674,7 +22736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B376" s="1" t="s">
         <v>1023</v>
       </c>
@@ -22715,7 +22777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B377" s="1" t="s">
         <v>1025</v>
       </c>
@@ -22756,7 +22818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B378" s="1" t="s">
         <v>1029</v>
       </c>
@@ -22797,7 +22859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B379" s="1" t="s">
         <v>1031</v>
       </c>
@@ -22838,7 +22900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B380" s="1" t="s">
         <v>1033</v>
       </c>
@@ -22879,7 +22941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="381" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B381" s="1" t="s">
         <v>1037</v>
       </c>
@@ -22920,7 +22982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B382" s="1" t="s">
         <v>1039</v>
       </c>
@@ -22961,7 +23023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="383" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B383" s="1" t="s">
         <v>1041</v>
       </c>
@@ -23002,7 +23064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B384" s="1" t="s">
         <v>1041</v>
       </c>
@@ -23043,7 +23105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B385" s="1" t="s">
         <v>1041</v>
       </c>
@@ -23084,7 +23146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="386" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B386" s="1" t="s">
         <v>1049</v>
       </c>
@@ -23125,7 +23187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="387" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B387" s="1" t="s">
         <v>1049</v>
       </c>
@@ -23166,7 +23228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="388" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B388" s="1" t="s">
         <v>1049</v>
       </c>
@@ -23207,7 +23269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="389" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B389" s="1" t="s">
         <v>1057</v>
       </c>
@@ -23248,7 +23310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="390" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B390" s="1" t="s">
         <v>1057</v>
       </c>
@@ -23289,7 +23351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="391" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B391" s="1" t="s">
         <v>1057</v>
       </c>
@@ -23330,7 +23392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="392" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B392" s="1" t="s">
         <v>1065</v>
       </c>
@@ -23371,7 +23433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="393" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B393" s="1" t="s">
         <v>1065</v>
       </c>
@@ -23412,7 +23474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="394" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B394" s="1" t="s">
         <v>1065</v>
       </c>
@@ -23453,7 +23515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B395" s="1" t="s">
         <v>1073</v>
       </c>
@@ -23494,7 +23556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="396" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B396" s="1" t="s">
         <v>1073</v>
       </c>
@@ -23535,7 +23597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="397" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B397" s="1" t="s">
         <v>1073</v>
       </c>
@@ -23576,7 +23638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="398" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B398" s="1" t="s">
         <v>1081</v>
       </c>
@@ -23617,7 +23679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="399" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B399" s="1" t="s">
         <v>1081</v>
       </c>
@@ -23658,7 +23720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="400" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B400" s="1" t="s">
         <v>1081</v>
       </c>
@@ -23699,7 +23761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="401" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B401" s="1" t="s">
         <v>1089</v>
       </c>
@@ -23740,7 +23802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B402" s="1" t="s">
         <v>1089</v>
       </c>
@@ -23781,7 +23843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B403" s="1" t="s">
         <v>1089</v>
       </c>
@@ -23822,7 +23884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="404" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B404" s="1" t="s">
         <v>1097</v>
       </c>
@@ -23863,7 +23925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="405" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B405" s="1" t="s">
         <v>1097</v>
       </c>
@@ -23904,7 +23966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="406" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B406" s="1" t="s">
         <v>1097</v>
       </c>
@@ -23945,7 +24007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="407" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B407" s="1" t="s">
         <v>1105</v>
       </c>
@@ -23986,7 +24048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="408" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B408" s="1" t="s">
         <v>1105</v>
       </c>
@@ -24027,7 +24089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="409" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B409" s="1" t="s">
         <v>1105</v>
       </c>
@@ -24068,7 +24130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="410" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B410" s="1" t="s">
         <v>1113</v>
       </c>
@@ -24109,7 +24171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="411" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B411" s="1" t="s">
         <v>1113</v>
       </c>
@@ -24150,7 +24212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="412" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B412" s="1" t="s">
         <v>1113</v>
       </c>
@@ -24191,7 +24253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="413" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B413" s="1" t="s">
         <v>1121</v>
       </c>
@@ -24232,7 +24294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="414" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B414" s="1" t="s">
         <v>1121</v>
       </c>
@@ -24273,7 +24335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="415" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B415" s="1" t="s">
         <v>1121</v>
       </c>
@@ -24314,7 +24376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B416" s="1" t="s">
         <v>1129</v>
       </c>
@@ -24355,7 +24417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="417" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B417" s="1" t="s">
         <v>1129</v>
       </c>
@@ -24396,7 +24458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="418" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B418" s="1" t="s">
         <v>1129</v>
       </c>
@@ -24437,7 +24499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B419" s="1" t="s">
         <v>1137</v>
       </c>
@@ -24478,7 +24540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="420" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B420" s="1" t="s">
         <v>1137</v>
       </c>
@@ -24519,7 +24581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="421" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B421" s="1" t="s">
         <v>1137</v>
       </c>
@@ -24560,7 +24622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="422" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B422" s="1" t="s">
         <v>1145</v>
       </c>
@@ -24601,7 +24663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="423" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B423" s="1" t="s">
         <v>1145</v>
       </c>
@@ -24642,7 +24704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="424" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B424" s="1" t="s">
         <v>1145</v>
       </c>
@@ -24683,7 +24745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="425" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B425" s="1" t="s">
         <v>1153</v>
       </c>
@@ -24724,7 +24786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B426" s="1" t="s">
         <v>1153</v>
       </c>
@@ -24765,7 +24827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="427" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B427" s="1" t="s">
         <v>1153</v>
       </c>
@@ -24806,7 +24868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="428" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B428" s="1" t="s">
         <v>1161</v>
       </c>
@@ -24847,7 +24909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="429" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B429" s="1" t="s">
         <v>1161</v>
       </c>
@@ -24888,7 +24950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="430" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B430" s="1" t="s">
         <v>1161</v>
       </c>
@@ -24929,7 +24991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="431" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B431" s="1" t="s">
         <v>1169</v>
       </c>
@@ -24970,7 +25032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="432" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B432" s="1" t="s">
         <v>1169</v>
       </c>
@@ -25011,7 +25073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="433" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B433" s="1" t="s">
         <v>1169</v>
       </c>
@@ -25052,7 +25114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="434" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B434" s="1" t="s">
         <v>1177</v>
       </c>
@@ -25093,7 +25155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="435" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B435" s="1" t="s">
         <v>1177</v>
       </c>
@@ -25134,7 +25196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="436" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B436" s="1" t="s">
         <v>1177</v>
       </c>
@@ -25175,7 +25237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="437" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B437" s="1" t="s">
         <v>1185</v>
       </c>
@@ -25216,7 +25278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="438" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B438" s="1" t="s">
         <v>1185</v>
       </c>
@@ -25257,7 +25319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="439" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B439" s="1" t="s">
         <v>1185</v>
       </c>
@@ -25298,7 +25360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="440" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B440" s="1" t="s">
         <v>1193</v>
       </c>
@@ -25339,7 +25401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="441" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B441" s="1" t="s">
         <v>1193</v>
       </c>
@@ -25380,7 +25442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="442" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B442" s="1" t="s">
         <v>1193</v>
       </c>
@@ -25421,7 +25483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="443" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B443" s="1" t="s">
         <v>1201</v>
       </c>
@@ -25462,7 +25524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="444" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B444" s="1" t="s">
         <v>1201</v>
       </c>
@@ -25503,7 +25565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="445" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B445" s="1" t="s">
         <v>1201</v>
       </c>
@@ -25544,7 +25606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="446" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B446" s="1" t="s">
         <v>1209</v>
       </c>
@@ -25585,7 +25647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="447" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B447" s="1" t="s">
         <v>1209</v>
       </c>
@@ -25626,7 +25688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="448" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B448" s="1" t="s">
         <v>1209</v>
       </c>
@@ -25667,7 +25729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="449" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B449" s="1" t="s">
         <v>1217</v>
       </c>
@@ -25708,7 +25770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="450" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B450" s="1" t="s">
         <v>1217</v>
       </c>
@@ -25749,7 +25811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="451" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B451" s="1" t="s">
         <v>1217</v>
       </c>
@@ -25790,7 +25852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="452" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B452" s="1" t="s">
         <v>1225</v>
       </c>
@@ -25831,7 +25893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="453" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B453" s="1" t="s">
         <v>1225</v>
       </c>
@@ -25872,7 +25934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="454" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B454" s="1" t="s">
         <v>1225</v>
       </c>
@@ -25913,7 +25975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="455" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B455" s="1" t="s">
         <v>1233</v>
       </c>
@@ -25954,7 +26016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="456" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B456" s="1" t="s">
         <v>1233</v>
       </c>
@@ -25995,7 +26057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="457" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B457" s="1" t="s">
         <v>1233</v>
       </c>
@@ -26036,7 +26098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="458" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B458" s="1" t="s">
         <v>1241</v>
       </c>
@@ -26077,7 +26139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="459" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B459" s="1" t="s">
         <v>1241</v>
       </c>
@@ -26118,7 +26180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="460" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B460" s="1" t="s">
         <v>1241</v>
       </c>
@@ -26159,7 +26221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="461" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B461" s="1" t="s">
         <v>1249</v>
       </c>
@@ -26200,7 +26262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="462" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B462" s="1" t="s">
         <v>1249</v>
       </c>
@@ -26241,7 +26303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="463" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B463" s="1" t="s">
         <v>1249</v>
       </c>
@@ -26282,7 +26344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="464" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B464" s="1" t="s">
         <v>1257</v>
       </c>
@@ -26323,7 +26385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="465" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B465" s="1" t="s">
         <v>1257</v>
       </c>
@@ -26364,7 +26426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="466" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B466" s="1" t="s">
         <v>1257</v>
       </c>
@@ -26405,7 +26467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B467" s="1" t="s">
         <v>1265</v>
       </c>
@@ -26446,7 +26508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="468" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B468" s="1" t="s">
         <v>1265</v>
       </c>
@@ -26487,7 +26549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="469" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B469" s="1" t="s">
         <v>1265</v>
       </c>
@@ -26528,7 +26590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="470" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B470" s="1" t="s">
         <v>1273</v>
       </c>
@@ -26569,7 +26631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B471" s="1" t="s">
         <v>1273</v>
       </c>
@@ -26610,7 +26672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="472" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B472" s="1" t="s">
         <v>1273</v>
       </c>
@@ -26651,7 +26713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="473" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B473" s="1" t="s">
         <v>1281</v>
       </c>
@@ -26692,7 +26754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="474" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B474" s="1" t="s">
         <v>1281</v>
       </c>
@@ -26733,7 +26795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B475" s="1" t="s">
         <v>1281</v>
       </c>
@@ -26774,7 +26836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="476" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B476" s="1" t="s">
         <v>1289</v>
       </c>
@@ -26815,7 +26877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="477" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B477" s="1" t="s">
         <v>1289</v>
       </c>
@@ -26856,7 +26918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="478" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B478" s="1" t="s">
         <v>1289</v>
       </c>
@@ -26897,7 +26959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="479" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B479" s="1" t="s">
         <v>1297</v>
       </c>
@@ -26938,7 +27000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="480" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B480" s="1" t="s">
         <v>1297</v>
       </c>
@@ -26979,7 +27041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B481" s="1" t="s">
         <v>1297</v>
       </c>
@@ -27020,7 +27082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="482" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B482" s="1" t="s">
         <v>1305</v>
       </c>
@@ -27061,7 +27123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="483" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B483" s="1" t="s">
         <v>1305</v>
       </c>
@@ -27102,7 +27164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="484" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B484" s="1" t="s">
         <v>1305</v>
       </c>
@@ -27143,7 +27205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="485" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B485" s="1" t="s">
         <v>1313</v>
       </c>
@@ -27184,7 +27246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="486" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B486" s="1" t="s">
         <v>1313</v>
       </c>
@@ -27225,7 +27287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="487" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B487" s="1" t="s">
         <v>1313</v>
       </c>
@@ -27266,7 +27328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="488" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B488" s="1" t="s">
         <v>1321</v>
       </c>
@@ -27307,7 +27369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="489" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B489" s="1" t="s">
         <v>1321</v>
       </c>
@@ -27348,7 +27410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="490" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B490" s="1" t="s">
         <v>1321</v>
       </c>
@@ -27389,7 +27451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="491" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B491" s="1" t="s">
         <v>1329</v>
       </c>
@@ -27430,7 +27492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="492" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B492" s="1" t="s">
         <v>1329</v>
       </c>
@@ -27471,7 +27533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B493" s="1" t="s">
         <v>1329</v>
       </c>
@@ -27512,7 +27574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="494" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B494" s="1" t="s">
         <v>1337</v>
       </c>
@@ -27553,7 +27615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="495" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B495" s="1" t="s">
         <v>1337</v>
       </c>
@@ -27594,7 +27656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="496" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B496" s="1" t="s">
         <v>1337</v>
       </c>
@@ -27635,7 +27697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B497" s="1" t="s">
         <v>1345</v>
       </c>
@@ -27676,7 +27738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="498" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B498" s="1" t="s">
         <v>1345</v>
       </c>
@@ -27717,7 +27779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="499" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B499" s="1" t="s">
         <v>1345</v>
       </c>
@@ -27758,7 +27820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="500" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B500" s="1" t="s">
         <v>1353</v>
       </c>
@@ -27799,7 +27861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B501" s="1" t="s">
         <v>1353</v>
       </c>
@@ -27840,7 +27902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B502" s="1" t="s">
         <v>1353</v>
       </c>
@@ -27881,7 +27943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B503" s="1" t="s">
         <v>1361</v>
       </c>
@@ -27922,7 +27984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B504" s="1" t="s">
         <v>1361</v>
       </c>
@@ -27963,7 +28025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B505" s="1" t="s">
         <v>1361</v>
       </c>
@@ -28004,7 +28066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="506" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B506" s="1" t="s">
         <v>1369</v>
       </c>
@@ -28045,7 +28107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B507" s="1" t="s">
         <v>1369</v>
       </c>
@@ -28086,7 +28148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B508" s="1" t="s">
         <v>1369</v>
       </c>
@@ -28127,7 +28189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B509" s="1" t="s">
         <v>1377</v>
       </c>
@@ -28168,7 +28230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B510" s="1" t="s">
         <v>1377</v>
       </c>
@@ -28209,7 +28271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B511" s="1" t="s">
         <v>1377</v>
       </c>
@@ -28250,7 +28312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B512" s="1" t="s">
         <v>1385</v>
       </c>
@@ -28291,7 +28353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="513" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B513" s="1" t="s">
         <v>1385</v>
       </c>
@@ -28332,7 +28394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="514" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B514" s="1" t="s">
         <v>1385</v>
       </c>
@@ -28373,7 +28435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B515" s="1" t="s">
         <v>1393</v>
       </c>
@@ -28414,7 +28476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="516" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B516" s="1" t="s">
         <v>1393</v>
       </c>
@@ -28455,7 +28517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="517" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B517" s="1" t="s">
         <v>1393</v>
       </c>
@@ -28496,7 +28558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B518" s="1" t="s">
         <v>1401</v>
       </c>
@@ -28537,7 +28599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="519" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B519" s="1" t="s">
         <v>1401</v>
       </c>
@@ -28578,7 +28640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B520" s="1" t="s">
         <v>1401</v>
       </c>
@@ -28619,7 +28681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="521" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B521" s="1" t="s">
         <v>1409</v>
       </c>
@@ -28660,7 +28722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="522" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B522" s="1" t="s">
         <v>1409</v>
       </c>
@@ -28701,7 +28763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="523" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B523" s="1" t="s">
         <v>1409</v>
       </c>
@@ -28742,7 +28804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="524" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B524" s="1" t="s">
         <v>1417</v>
       </c>
@@ -28783,7 +28845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="525" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B525" s="1" t="s">
         <v>1417</v>
       </c>
@@ -28824,7 +28886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="526" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B526" s="1" t="s">
         <v>1417</v>
       </c>
@@ -28865,7 +28927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="527" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B527" s="1" t="s">
         <v>1425</v>
       </c>
@@ -28906,7 +28968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="528" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B528" s="1" t="s">
         <v>1425</v>
       </c>
@@ -28947,7 +29009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="529" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B529" s="1" t="s">
         <v>1425</v>
       </c>
@@ -28988,7 +29050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="530" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B530" s="1" t="s">
         <v>1433</v>
       </c>
@@ -29029,7 +29091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="531" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B531" s="1" t="s">
         <v>1433</v>
       </c>
@@ -29070,7 +29132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="532" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B532" s="1" t="s">
         <v>1433</v>
       </c>
@@ -29111,7 +29173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="533" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B533" s="1" t="s">
         <v>1441</v>
       </c>
@@ -29152,7 +29214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="534" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B534" s="1" t="s">
         <v>1441</v>
       </c>
@@ -29193,7 +29255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="535" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B535" s="1" t="s">
         <v>1441</v>
       </c>
@@ -29234,7 +29296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="536" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B536" s="1" t="s">
         <v>1449</v>
       </c>
@@ -29275,7 +29337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="537" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B537" s="1" t="s">
         <v>1449</v>
       </c>
@@ -29316,7 +29378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="538" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B538" s="1" t="s">
         <v>1449</v>
       </c>
@@ -29357,7 +29419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="539" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B539" s="1" t="s">
         <v>1457</v>
       </c>
@@ -29398,7 +29460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="540" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B540" s="1" t="s">
         <v>1457</v>
       </c>
@@ -29439,7 +29501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="541" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B541" s="1" t="s">
         <v>1457</v>
       </c>
@@ -29480,7 +29542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="542" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B542" s="1" t="s">
         <v>1465</v>
       </c>
@@ -29521,7 +29583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="543" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B543" s="1" t="s">
         <v>1465</v>
       </c>
@@ -29562,7 +29624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="544" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B544" s="1" t="s">
         <v>1465</v>
       </c>
@@ -29603,7 +29665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="545" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B545" s="1" t="s">
         <v>1473</v>
       </c>
@@ -29644,7 +29706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="546" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B546" s="1" t="s">
         <v>1473</v>
       </c>
@@ -29685,7 +29747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="547" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B547" s="1" t="s">
         <v>1473</v>
       </c>
@@ -29726,7 +29788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="548" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B548" s="1" t="s">
         <v>1481</v>
       </c>
@@ -29767,7 +29829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="549" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B549" s="1" t="s">
         <v>1481</v>
       </c>
@@ -29808,7 +29870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="550" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B550" s="1" t="s">
         <v>1481</v>
       </c>
@@ -29849,7 +29911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="551" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B551" s="1" t="s">
         <v>1489</v>
       </c>
@@ -29890,7 +29952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="552" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B552" s="1" t="s">
         <v>1489</v>
       </c>
@@ -29931,7 +29993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="553" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B553" s="1" t="s">
         <v>1489</v>
       </c>
@@ -29972,7 +30034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="554" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B554" s="1" t="s">
         <v>1497</v>
       </c>
@@ -30013,7 +30075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="555" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B555" s="1" t="s">
         <v>1497</v>
       </c>
@@ -30054,7 +30116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="556" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B556" s="1" t="s">
         <v>1497</v>
       </c>
@@ -30095,7 +30157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="557" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B557" s="1" t="s">
         <v>1505</v>
       </c>
@@ -30136,7 +30198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="558" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B558" s="1" t="s">
         <v>1505</v>
       </c>
@@ -30177,7 +30239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="559" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B559" s="1" t="s">
         <v>1505</v>
       </c>
@@ -30218,7 +30280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="560" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B560" s="1" t="s">
         <v>1513</v>
       </c>
@@ -30259,7 +30321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="561" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B561" s="1" t="s">
         <v>1513</v>
       </c>
@@ -30300,7 +30362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="562" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B562" s="1" t="s">
         <v>1513</v>
       </c>
@@ -30341,7 +30403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="563" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B563" s="1" t="s">
         <v>1521</v>
       </c>
@@ -30382,7 +30444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="564" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B564" s="1" t="s">
         <v>1521</v>
       </c>
@@ -30423,7 +30485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="565" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B565" s="1" t="s">
         <v>1521</v>
       </c>
@@ -30464,7 +30526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="566" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B566" s="1" t="s">
         <v>1529</v>
       </c>
@@ -30505,7 +30567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="567" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B567" s="1" t="s">
         <v>1529</v>
       </c>
@@ -30546,7 +30608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="568" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B568" s="1" t="s">
         <v>1529</v>
       </c>
@@ -30587,7 +30649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="569" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B569" s="1" t="s">
         <v>1537</v>
       </c>
@@ -30628,7 +30690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="570" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B570" s="1" t="s">
         <v>1537</v>
       </c>
@@ -30669,7 +30731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="571" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B571" s="1" t="s">
         <v>1537</v>
       </c>
@@ -30710,7 +30772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="572" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B572" s="1" t="s">
         <v>1545</v>
       </c>
@@ -30751,7 +30813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="573" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B573" s="1" t="s">
         <v>1545</v>
       </c>
@@ -30792,7 +30854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="574" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B574" s="1" t="s">
         <v>1545</v>
       </c>
@@ -30833,7 +30895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="575" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B575" s="1" t="s">
         <v>1553</v>
       </c>
@@ -30874,7 +30936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="576" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B576" s="1" t="s">
         <v>1553</v>
       </c>
@@ -30915,7 +30977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="577" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B577" s="1" t="s">
         <v>1553</v>
       </c>
@@ -30956,7 +31018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="578" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B578" s="1" t="s">
         <v>1561</v>
       </c>
@@ -30997,7 +31059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="579" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B579" s="1" t="s">
         <v>1561</v>
       </c>
@@ -31038,7 +31100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="580" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B580" s="1" t="s">
         <v>1561</v>
       </c>
@@ -31079,7 +31141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="581" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B581" s="1" t="s">
         <v>1569</v>
       </c>
@@ -31120,7 +31182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="582" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B582" s="1" t="s">
         <v>1569</v>
       </c>
@@ -31161,7 +31223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="583" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B583" s="1" t="s">
         <v>1569</v>
       </c>
@@ -31202,7 +31264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="584" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B584" s="1" t="s">
         <v>1577</v>
       </c>
@@ -31243,7 +31305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="585" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B585" s="1" t="s">
         <v>1577</v>
       </c>
@@ -31284,7 +31346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="586" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B586" s="1" t="s">
         <v>1577</v>
       </c>
@@ -31325,7 +31387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="587" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B587" s="1" t="s">
         <v>1585</v>
       </c>
@@ -31366,7 +31428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="588" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B588" s="1" t="s">
         <v>1585</v>
       </c>
@@ -31407,7 +31469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="589" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B589" s="1" t="s">
         <v>1585</v>
       </c>
@@ -31448,7 +31510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="590" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B590" s="1" t="s">
         <v>1593</v>
       </c>
@@ -31489,7 +31551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="591" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B591" s="1" t="s">
         <v>1593</v>
       </c>
@@ -31530,7 +31592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="592" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B592" s="1" t="s">
         <v>1593</v>
       </c>
@@ -31571,7 +31633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="593" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B593" s="1" t="s">
         <v>1601</v>
       </c>
@@ -31612,7 +31674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="594" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B594" s="1" t="s">
         <v>1601</v>
       </c>
@@ -31653,7 +31715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="595" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B595" s="1" t="s">
         <v>1601</v>
       </c>
@@ -31694,7 +31756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="596" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B596" s="1" t="s">
         <v>1609</v>
       </c>
@@ -31735,7 +31797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="597" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B597" s="1" t="s">
         <v>1609</v>
       </c>
@@ -31776,7 +31838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="598" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B598" s="1" t="s">
         <v>1609</v>
       </c>
@@ -31817,7 +31879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="599" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B599" s="1" t="s">
         <v>1617</v>
       </c>
@@ -31858,7 +31920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="600" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B600" s="1" t="s">
         <v>1617</v>
       </c>
@@ -31899,7 +31961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="601" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B601" s="1" t="s">
         <v>1617</v>
       </c>
@@ -31940,7 +32002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="602" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B602" s="1" t="s">
         <v>1625</v>
       </c>
@@ -31981,7 +32043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="603" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B603" s="1" t="s">
         <v>1625</v>
       </c>
@@ -32022,7 +32084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="604" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B604" s="1" t="s">
         <v>1625</v>
       </c>
@@ -32063,7 +32125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="605" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B605" s="1" t="s">
         <v>1633</v>
       </c>
@@ -32104,7 +32166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="606" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B606" s="1" t="s">
         <v>1633</v>
       </c>
@@ -32145,7 +32207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="607" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B607" s="1" t="s">
         <v>1633</v>
       </c>
@@ -32186,7 +32248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="608" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B608" s="1" t="s">
         <v>1641</v>
       </c>
@@ -32227,7 +32289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="609" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B609" s="1" t="s">
         <v>1641</v>
       </c>
@@ -32268,7 +32330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="610" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B610" s="1" t="s">
         <v>1641</v>
       </c>
@@ -32309,7 +32371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="611" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B611" s="1" t="s">
         <v>1646</v>
       </c>
@@ -32350,7 +32412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="612" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B612" s="1" t="s">
         <v>1646</v>
       </c>
@@ -32391,7 +32453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="613" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B613" s="1" t="s">
         <v>1646</v>
       </c>
@@ -32432,7 +32494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="614" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B614" s="1" t="s">
         <v>1651</v>
       </c>
@@ -32473,7 +32535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="615" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B615" s="1" t="s">
         <v>1651</v>
       </c>
@@ -32514,7 +32576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="616" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B616" s="1" t="s">
         <v>1651</v>
       </c>
@@ -32555,7 +32617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="617" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B617" s="1" t="s">
         <v>1656</v>
       </c>
@@ -32596,7 +32658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="618" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B618" s="1" t="s">
         <v>1656</v>
       </c>
@@ -32637,7 +32699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="619" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B619" s="1" t="s">
         <v>1656</v>
       </c>
@@ -32678,7 +32740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="620" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B620" s="1" t="s">
         <v>1661</v>
       </c>
@@ -32719,7 +32781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="621" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B621" s="1" t="s">
         <v>1661</v>
       </c>
@@ -32760,7 +32822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="622" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B622" s="1" t="s">
         <v>1661</v>
       </c>
@@ -32801,7 +32863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="623" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B623" s="1" t="s">
         <v>1666</v>
       </c>
@@ -32842,7 +32904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="624" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B624" s="1" t="s">
         <v>1666</v>
       </c>
@@ -32883,7 +32945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="625" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B625" s="1" t="s">
         <v>1666</v>
       </c>
@@ -32924,7 +32986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="626" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B626" s="1" t="s">
         <v>1671</v>
       </c>
@@ -32965,7 +33027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="627" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B627" s="1" t="s">
         <v>1671</v>
       </c>
@@ -33006,7 +33068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="628" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B628" s="1" t="s">
         <v>1671</v>
       </c>
@@ -33047,7 +33109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="629" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B629" s="1" t="s">
         <v>1676</v>
       </c>
@@ -33088,7 +33150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="630" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B630" s="1" t="s">
         <v>1676</v>
       </c>
@@ -33129,7 +33191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="631" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B631" s="1" t="s">
         <v>1676</v>
       </c>
@@ -33170,7 +33232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="632" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B632" s="1" t="s">
         <v>1681</v>
       </c>
@@ -33211,7 +33273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="633" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B633" s="1" t="s">
         <v>1681</v>
       </c>
@@ -33252,7 +33314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="634" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B634" s="1" t="s">
         <v>1681</v>
       </c>
@@ -33293,7 +33355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="635" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B635" s="1" t="s">
         <v>1686</v>
       </c>
@@ -33334,7 +33396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="636" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B636" s="1" t="s">
         <v>1686</v>
       </c>
@@ -33375,7 +33437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="637" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B637" s="1" t="s">
         <v>1686</v>
       </c>
@@ -33416,7 +33478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="638" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B638" s="1" t="s">
         <v>1691</v>
       </c>
@@ -33457,7 +33519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="639" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B639" s="1" t="s">
         <v>1691</v>
       </c>
@@ -33498,7 +33560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="640" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B640" s="1" t="s">
         <v>1691</v>
       </c>
@@ -33539,7 +33601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="641" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B641" s="1" t="s">
         <v>1696</v>
       </c>
@@ -33580,7 +33642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="642" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B642" s="1" t="s">
         <v>1696</v>
       </c>
@@ -33621,7 +33683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="643" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B643" s="1" t="s">
         <v>1696</v>
       </c>
@@ -33662,7 +33724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="644" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B644" s="1" t="s">
         <v>1701</v>
       </c>
@@ -33703,7 +33765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="645" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B645" s="1" t="s">
         <v>1701</v>
       </c>
@@ -33744,7 +33806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B646" s="1" t="s">
         <v>1701</v>
       </c>
@@ -33785,7 +33847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B647" s="1" t="s">
         <v>1706</v>
       </c>
@@ -33826,7 +33888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B648" s="1" t="s">
         <v>1706</v>
       </c>
@@ -33867,7 +33929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B649" s="1" t="s">
         <v>1706</v>
       </c>
@@ -33908,7 +33970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="650" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B650" s="1" t="s">
         <v>1711</v>
       </c>
@@ -33949,7 +34011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B651" s="1" t="s">
         <v>1711</v>
       </c>
@@ -33990,7 +34052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B652" s="1" t="s">
         <v>1711</v>
       </c>
@@ -34031,7 +34093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B653" s="1" t="s">
         <v>1716</v>
       </c>
@@ -34072,7 +34134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B654" s="1" t="s">
         <v>1716</v>
       </c>
@@ -34113,7 +34175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B655" s="1" t="s">
         <v>1716</v>
       </c>
@@ -34154,7 +34216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B656" s="1" t="s">
         <v>1721</v>
       </c>
@@ -34195,7 +34257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B657" s="1" t="s">
         <v>1721</v>
       </c>
@@ -34236,7 +34298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B658" s="1" t="s">
         <v>1721</v>
       </c>
@@ -34277,7 +34339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="659" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B659" s="1" t="s">
         <v>1726</v>
       </c>
@@ -34318,7 +34380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="660" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B660" s="1" t="s">
         <v>1726</v>
       </c>
@@ -34359,7 +34421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="661" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B661" s="1" t="s">
         <v>1726</v>
       </c>
@@ -34400,7 +34462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="662" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B662" s="1" t="s">
         <v>1731</v>
       </c>
@@ -34441,7 +34503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="663" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B663" s="1" t="s">
         <v>1731</v>
       </c>
@@ -34482,7 +34544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="664" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B664" s="1" t="s">
         <v>1731</v>
       </c>
@@ -34523,7 +34585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="665" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B665" s="1" t="s">
         <v>1736</v>
       </c>
@@ -34564,7 +34626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="666" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B666" s="1" t="s">
         <v>1736</v>
       </c>
@@ -34605,7 +34667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="667" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B667" s="1" t="s">
         <v>1736</v>
       </c>
@@ -34646,7 +34708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="668" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B668" s="1" t="s">
         <v>1741</v>
       </c>
@@ -34687,7 +34749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="669" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B669" s="1" t="s">
         <v>1741</v>
       </c>
@@ -34728,7 +34790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="670" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B670" s="1" t="s">
         <v>1741</v>
       </c>
@@ -34769,7 +34831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="671" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B671" s="1" t="s">
         <v>1746</v>
       </c>
@@ -34810,7 +34872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="672" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B672" s="1" t="s">
         <v>1746</v>
       </c>
@@ -34851,7 +34913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="673" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B673" s="1" t="s">
         <v>1746</v>
       </c>
@@ -34892,7 +34954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="674" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B674" s="1" t="s">
         <v>1751</v>
       </c>
@@ -34933,7 +34995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="675" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B675" s="1" t="s">
         <v>1751</v>
       </c>
@@ -34974,7 +35036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="676" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B676" s="1" t="s">
         <v>1751</v>
       </c>
@@ -35015,7 +35077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="677" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B677" s="1" t="s">
         <v>1756</v>
       </c>
@@ -35056,7 +35118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="678" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B678" s="1" t="s">
         <v>1756</v>
       </c>
@@ -35097,7 +35159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="679" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B679" s="1" t="s">
         <v>1756</v>
       </c>
@@ -35138,7 +35200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="680" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B680" s="1" t="s">
         <v>1761</v>
       </c>
@@ -35179,7 +35241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="681" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B681" s="1" t="s">
         <v>1761</v>
       </c>
@@ -35220,7 +35282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="682" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B682" s="1" t="s">
         <v>1761</v>
       </c>
@@ -35261,7 +35323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="683" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B683" s="1" t="s">
         <v>1766</v>
       </c>
@@ -35302,7 +35364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="684" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B684" s="1" t="s">
         <v>1766</v>
       </c>
@@ -35343,7 +35405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="685" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B685" s="1" t="s">
         <v>1766</v>
       </c>
@@ -35384,7 +35446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="686" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B686" s="1" t="s">
         <v>1771</v>
       </c>
@@ -35425,7 +35487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="687" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B687" s="1" t="s">
         <v>1771</v>
       </c>
@@ -35466,7 +35528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="688" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B688" s="1" t="s">
         <v>1771</v>
       </c>
@@ -35507,7 +35569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="689" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B689" s="1" t="s">
         <v>1776</v>
       </c>
@@ -35548,7 +35610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="690" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B690" s="1" t="s">
         <v>1776</v>
       </c>
@@ -35589,7 +35651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="691" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B691" s="1" t="s">
         <v>1776</v>
       </c>
@@ -35630,7 +35692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="692" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B692" s="1" t="s">
         <v>1781</v>
       </c>
@@ -35671,7 +35733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="693" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B693" s="1" t="s">
         <v>1781</v>
       </c>
@@ -35712,7 +35774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="694" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B694" s="1" t="s">
         <v>1781</v>
       </c>
@@ -35753,7 +35815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="695" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B695" s="1" t="s">
         <v>1786</v>
       </c>
@@ -35794,7 +35856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="696" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B696" s="1" t="s">
         <v>1786</v>
       </c>
@@ -35835,7 +35897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="697" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B697" s="1" t="s">
         <v>1786</v>
       </c>
@@ -35876,7 +35938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="698" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B698" s="1" t="s">
         <v>1791</v>
       </c>
@@ -35917,7 +35979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="699" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B699" s="1" t="s">
         <v>1791</v>
       </c>
@@ -35958,7 +36020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="700" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B700" s="1" t="s">
         <v>1791</v>
       </c>
@@ -35999,7 +36061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="701" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B701" s="1" t="s">
         <v>1796</v>
       </c>
@@ -36040,7 +36102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="702" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B702" s="1" t="s">
         <v>1796</v>
       </c>
@@ -36081,7 +36143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="703" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B703" s="1" t="s">
         <v>1796</v>
       </c>
@@ -36122,7 +36184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="704" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B704" s="1" t="s">
         <v>1801</v>
       </c>
@@ -36163,7 +36225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="705" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B705" s="1" t="s">
         <v>1801</v>
       </c>
@@ -36204,7 +36266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="706" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B706" s="1" t="s">
         <v>1801</v>
       </c>
@@ -36245,7 +36307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="707" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B707" s="1" t="s">
         <v>1806</v>
       </c>
@@ -36286,7 +36348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="708" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B708" s="1" t="s">
         <v>1806</v>
       </c>
@@ -36327,7 +36389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="709" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B709" s="1" t="s">
         <v>1806</v>
       </c>
@@ -36368,7 +36430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="710" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B710" s="1" t="s">
         <v>1811</v>
       </c>
@@ -36409,7 +36471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="711" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B711" s="1" t="s">
         <v>1811</v>
       </c>
@@ -36450,7 +36512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="712" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B712" s="1" t="s">
         <v>1811</v>
       </c>
@@ -36491,7 +36553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="713" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B713" s="1" t="s">
         <v>1816</v>
       </c>
@@ -36532,7 +36594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="714" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B714" s="1" t="s">
         <v>1816</v>
       </c>
@@ -36573,7 +36635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="715" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B715" s="1" t="s">
         <v>1816</v>
       </c>
@@ -36614,7 +36676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="716" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B716" s="1" t="s">
         <v>1821</v>
       </c>
@@ -36655,7 +36717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="717" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B717" s="1" t="s">
         <v>1821</v>
       </c>
@@ -36696,7 +36758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="718" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B718" s="1" t="s">
         <v>1821</v>
       </c>
@@ -36737,7 +36799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="719" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B719" s="1" t="s">
         <v>1826</v>
       </c>
@@ -36778,7 +36840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="720" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B720" s="1" t="s">
         <v>1826</v>
       </c>
@@ -36819,7 +36881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="721" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B721" s="1" t="s">
         <v>1826</v>
       </c>
@@ -36860,7 +36922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="722" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B722" s="1" t="s">
         <v>1831</v>
       </c>
@@ -36901,7 +36963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="723" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B723" s="1" t="s">
         <v>1831</v>
       </c>
@@ -36942,7 +37004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="724" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B724" s="1" t="s">
         <v>1831</v>
       </c>
@@ -36983,7 +37045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="725" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B725" s="1" t="s">
         <v>1836</v>
       </c>
@@ -37024,7 +37086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="726" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B726" s="1" t="s">
         <v>1836</v>
       </c>
@@ -37065,7 +37127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="727" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B727" s="1" t="s">
         <v>1836</v>
       </c>
@@ -37106,7 +37168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="728" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B728" s="1" t="s">
         <v>1841</v>
       </c>
@@ -37147,7 +37209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="729" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B729" s="1" t="s">
         <v>1841</v>
       </c>
@@ -37188,7 +37250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="730" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B730" s="1" t="s">
         <v>1841</v>
       </c>
@@ -37229,7 +37291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="731" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B731" s="1" t="s">
         <v>1846</v>
       </c>
@@ -37270,7 +37332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="732" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B732" s="1" t="s">
         <v>1846</v>
       </c>
@@ -37311,7 +37373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="733" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B733" s="1" t="s">
         <v>1846</v>
       </c>
@@ -37352,7 +37414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="734" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B734" s="1" t="s">
         <v>1851</v>
       </c>
@@ -37393,7 +37455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="735" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B735" s="1" t="s">
         <v>1851</v>
       </c>
@@ -37434,7 +37496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="736" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B736" s="1" t="s">
         <v>1851</v>
       </c>
@@ -37475,7 +37537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="737" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B737" s="1" t="s">
         <v>1856</v>
       </c>
@@ -37516,7 +37578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="738" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B738" s="1" t="s">
         <v>1856</v>
       </c>
@@ -37557,7 +37619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="739" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B739" s="1" t="s">
         <v>1856</v>
       </c>
@@ -37598,7 +37660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="740" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B740" s="1" t="s">
         <v>1861</v>
       </c>
@@ -37639,7 +37701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="741" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B741" s="1" t="s">
         <v>1861</v>
       </c>
@@ -37680,7 +37742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="742" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B742" s="1" t="s">
         <v>1861</v>
       </c>
@@ -37721,7 +37783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="743" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B743" s="1" t="s">
         <v>1866</v>
       </c>
@@ -37762,7 +37824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="744" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B744" s="1" t="s">
         <v>1866</v>
       </c>
@@ -37803,7 +37865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="745" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B745" s="1" t="s">
         <v>1866</v>
       </c>
@@ -37844,7 +37906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="746" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B746" s="1" t="s">
         <v>1871</v>
       </c>
@@ -37885,7 +37947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="747" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B747" s="1" t="s">
         <v>1871</v>
       </c>
@@ -37926,7 +37988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="748" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B748" s="1" t="s">
         <v>1871</v>
       </c>
@@ -37967,7 +38029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="749" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B749" s="1" t="s">
         <v>1876</v>
       </c>
@@ -38008,7 +38070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="750" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B750" s="1" t="s">
         <v>1876</v>
       </c>
@@ -38049,7 +38111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="751" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B751" s="1" t="s">
         <v>1876</v>
       </c>
@@ -38090,7 +38152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="752" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B752" s="1" t="s">
         <v>1881</v>
       </c>
@@ -38131,7 +38193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="753" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B753" s="1" t="s">
         <v>1881</v>
       </c>
@@ -38172,7 +38234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="754" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B754" s="1" t="s">
         <v>1881</v>
       </c>
@@ -38213,7 +38275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="755" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B755" s="1" t="s">
         <v>1886</v>
       </c>
@@ -38254,7 +38316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="756" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B756" s="1" t="s">
         <v>1886</v>
       </c>
@@ -38295,7 +38357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="757" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B757" s="1" t="s">
         <v>1886</v>
       </c>
@@ -38336,7 +38398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="758" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B758" s="1" t="s">
         <v>1891</v>
       </c>
@@ -38377,7 +38439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="759" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B759" s="1" t="s">
         <v>1891</v>
       </c>
@@ -38418,7 +38480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="760" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B760" s="1" t="s">
         <v>1891</v>
       </c>
@@ -38459,7 +38521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="761" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B761" s="1" t="s">
         <v>1896</v>
       </c>
@@ -38500,7 +38562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="762" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B762" s="1" t="s">
         <v>1896</v>
       </c>
@@ -38541,7 +38603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="763" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B763" s="1" t="s">
         <v>1896</v>
       </c>
@@ -38582,7 +38644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="764" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B764" s="1" t="s">
         <v>1901</v>
       </c>
@@ -38623,7 +38685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="765" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B765" s="1" t="s">
         <v>1901</v>
       </c>
@@ -38664,7 +38726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="766" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B766" s="1" t="s">
         <v>1901</v>
       </c>
@@ -38705,7 +38767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="767" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B767" s="1" t="s">
         <v>1906</v>
       </c>
@@ -38746,7 +38808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="768" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B768" s="1" t="s">
         <v>1906</v>
       </c>
@@ -38787,7 +38849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="769" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B769" s="1" t="s">
         <v>1906</v>
       </c>
@@ -38828,7 +38890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="770" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B770" s="1" t="s">
         <v>1911</v>
       </c>
@@ -38869,7 +38931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="771" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B771" s="1" t="s">
         <v>1911</v>
       </c>
@@ -38910,7 +38972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="772" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B772" s="1" t="s">
         <v>1911</v>
       </c>
@@ -38951,7 +39013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="773" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B773" s="1" t="s">
         <v>1916</v>
       </c>
@@ -38992,7 +39054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="774" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B774" s="1" t="s">
         <v>1916</v>
       </c>
@@ -39033,7 +39095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="775" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B775" s="1" t="s">
         <v>1916</v>
       </c>
@@ -39074,7 +39136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="776" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B776" s="1" t="s">
         <v>1921</v>
       </c>
@@ -39115,7 +39177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="777" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B777" s="1" t="s">
         <v>1921</v>
       </c>
@@ -39156,7 +39218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="778" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B778" s="1" t="s">
         <v>1921</v>
       </c>
@@ -39197,7 +39259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="779" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B779" s="1" t="s">
         <v>1926</v>
       </c>
@@ -39238,7 +39300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="780" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B780" s="1" t="s">
         <v>1926</v>
       </c>
@@ -39279,7 +39341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="781" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B781" s="1" t="s">
         <v>1926</v>
       </c>
@@ -39320,7 +39382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="782" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B782" s="1" t="s">
         <v>1931</v>
       </c>
@@ -39361,7 +39423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="783" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B783" s="1" t="s">
         <v>1931</v>
       </c>
@@ -39402,7 +39464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="784" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B784" s="1" t="s">
         <v>1931</v>
       </c>
@@ -39443,7 +39505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="785" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B785" s="1" t="s">
         <v>1936</v>
       </c>
@@ -39484,7 +39546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="786" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B786" s="1" t="s">
         <v>1936</v>
       </c>
@@ -39525,7 +39587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="787" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B787" s="1" t="s">
         <v>1936</v>
       </c>
@@ -39566,7 +39628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="788" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B788" s="1" t="s">
         <v>1941</v>
       </c>
@@ -39607,7 +39669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="789" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B789" s="1" t="s">
         <v>1941</v>
       </c>
@@ -39648,7 +39710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="790" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B790" s="1" t="s">
         <v>1941</v>
       </c>
@@ -39689,7 +39751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="791" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B791" s="1" t="s">
         <v>1946</v>
       </c>
@@ -39730,7 +39792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="792" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B792" s="1" t="s">
         <v>1946</v>
       </c>
@@ -39771,7 +39833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="793" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B793" s="1" t="s">
         <v>1946</v>
       </c>
@@ -39812,7 +39874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="794" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B794" s="1" t="s">
         <v>1951</v>
       </c>
@@ -39853,7 +39915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="795" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B795" s="1" t="s">
         <v>1951</v>
       </c>
@@ -39894,7 +39956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="796" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B796" s="1" t="s">
         <v>1951</v>
       </c>
@@ -39935,7 +39997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="797" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B797" s="1" t="s">
         <v>1956</v>
       </c>
@@ -39976,7 +40038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="798" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B798" s="1" t="s">
         <v>1956</v>
       </c>
@@ -40017,7 +40079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="799" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B799" s="1" t="s">
         <v>1956</v>
       </c>
@@ -40058,7 +40120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="800" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B800" s="1" t="s">
         <v>1961</v>
       </c>
@@ -40099,7 +40161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="801" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B801" s="1" t="s">
         <v>1961</v>
       </c>
@@ -40140,7 +40202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="802" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B802" s="1" t="s">
         <v>1961</v>
       </c>
@@ -40181,7 +40243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="803" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B803" s="1" t="s">
         <v>1966</v>
       </c>
@@ -40222,7 +40284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="804" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B804" s="1" t="s">
         <v>1966</v>
       </c>
@@ -40263,7 +40325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="805" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B805" s="1" t="s">
         <v>1966</v>
       </c>
@@ -40304,7 +40366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="806" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B806" s="1" t="s">
         <v>1971</v>
       </c>
@@ -40345,7 +40407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="807" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B807" s="1" t="s">
         <v>1971</v>
       </c>
@@ -40386,7 +40448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="808" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B808" s="1" t="s">
         <v>1971</v>
       </c>
@@ -40427,7 +40489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="809" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B809" s="1" t="s">
         <v>1976</v>
       </c>
@@ -40468,7 +40530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="810" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B810" s="1" t="s">
         <v>1976</v>
       </c>
@@ -40509,7 +40571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="811" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B811" s="1" t="s">
         <v>1976</v>
       </c>
@@ -40550,7 +40612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="812" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B812" s="1" t="s">
         <v>1981</v>
       </c>
@@ -40591,7 +40653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="813" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B813" s="1" t="s">
         <v>1981</v>
       </c>
@@ -40632,7 +40694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="814" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B814" s="1" t="s">
         <v>1981</v>
       </c>
@@ -40673,7 +40735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="815" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B815" s="1" t="s">
         <v>1986</v>
       </c>
@@ -40714,7 +40776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="816" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B816" s="1" t="s">
         <v>1986</v>
       </c>
@@ -40755,7 +40817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="817" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B817" s="1" t="s">
         <v>1986</v>
       </c>
@@ -40796,7 +40858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="818" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B818" s="1" t="s">
         <v>1991</v>
       </c>
@@ -40837,7 +40899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="819" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B819" s="1" t="s">
         <v>1991</v>
       </c>
@@ -40878,7 +40940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="820" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B820" s="1" t="s">
         <v>1991</v>
       </c>
@@ -40919,7 +40981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="821" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B821" s="1" t="s">
         <v>1996</v>
       </c>
@@ -40960,7 +41022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="822" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B822" s="1" t="s">
         <v>1996</v>
       </c>
@@ -41001,7 +41063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="823" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B823" s="1" t="s">
         <v>1996</v>
       </c>
@@ -41042,7 +41104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="824" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B824" s="1" t="s">
         <v>2001</v>
       </c>
@@ -41083,7 +41145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="825" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B825" s="1" t="s">
         <v>2001</v>
       </c>
@@ -41124,7 +41186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="826" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B826" s="1" t="s">
         <v>2001</v>
       </c>
@@ -41165,7 +41227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="827" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B827" s="1" t="s">
         <v>2006</v>
       </c>
@@ -41206,7 +41268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="828" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B828" s="1" t="s">
         <v>2006</v>
       </c>
@@ -41247,7 +41309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="829" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B829" s="1" t="s">
         <v>2006</v>
       </c>
@@ -41288,7 +41350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="830" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B830" s="1" t="s">
         <v>2011</v>
       </c>
@@ -41329,7 +41391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="831" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B831" s="1" t="s">
         <v>2011</v>
       </c>
@@ -41370,7 +41432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="832" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B832" s="1" t="s">
         <v>2011</v>
       </c>
@@ -41411,7 +41473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="833" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B833" s="1" t="s">
         <v>2016</v>
       </c>
@@ -41452,7 +41514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="834" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B834" s="1" t="s">
         <v>2016</v>
       </c>
@@ -41493,7 +41555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="835" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B835" s="1" t="s">
         <v>2016</v>
       </c>
@@ -41534,7 +41596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="836" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B836" s="1" t="s">
         <v>2021</v>
       </c>
@@ -41575,7 +41637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="837" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B837" s="1" t="s">
         <v>2021</v>
       </c>
@@ -41616,7 +41678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="838" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B838" s="1" t="s">
         <v>2021</v>
       </c>
@@ -41657,7 +41719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="839" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B839" s="1" t="s">
         <v>2026</v>
       </c>
@@ -41698,7 +41760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="840" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B840" s="1" t="s">
         <v>2026</v>
       </c>
@@ -41739,7 +41801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="841" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B841" s="1" t="s">
         <v>2026</v>
       </c>
@@ -41780,7 +41842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="842" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B842" s="1" t="s">
         <v>2031</v>
       </c>
@@ -41821,7 +41883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="843" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B843" s="1" t="s">
         <v>2031</v>
       </c>
@@ -41862,7 +41924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="844" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B844" s="1" t="s">
         <v>2031</v>
       </c>
@@ -41903,7 +41965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="845" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B845" s="1" t="s">
         <v>2036</v>
       </c>
@@ -41944,7 +42006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="846" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B846" s="1" t="s">
         <v>2036</v>
       </c>
@@ -41985,7 +42047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="847" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B847" s="1" t="s">
         <v>2036</v>
       </c>
@@ -42026,7 +42088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="848" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B848" s="1" t="s">
         <v>2041</v>
       </c>
@@ -42067,7 +42129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="849" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B849" s="1" t="s">
         <v>2041</v>
       </c>
@@ -42108,7 +42170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="850" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B850" s="1" t="s">
         <v>2041</v>
       </c>
@@ -42149,7 +42211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="851" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B851" s="1" t="s">
         <v>2046</v>
       </c>
@@ -42190,7 +42252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="852" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B852" s="1" t="s">
         <v>2046</v>
       </c>
@@ -42231,7 +42293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="853" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B853" s="1" t="s">
         <v>2046</v>
       </c>
@@ -42272,7 +42334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="854" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B854" s="1" t="s">
         <v>2051</v>
       </c>
@@ -42313,7 +42375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="855" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B855" s="1" t="s">
         <v>2051</v>
       </c>
@@ -42354,7 +42416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="856" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B856" s="1" t="s">
         <v>2051</v>
       </c>
@@ -42395,7 +42457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="857" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B857" s="1" t="s">
         <v>2059</v>
       </c>
@@ -42436,7 +42498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="858" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B858" s="1" t="s">
         <v>2059</v>
       </c>
@@ -42477,7 +42539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="859" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B859" s="1" t="s">
         <v>2059</v>
       </c>
@@ -42518,7 +42580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="860" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B860" s="1" t="s">
         <v>2067</v>
       </c>
@@ -42559,7 +42621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="861" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B861" s="1" t="s">
         <v>2067</v>
       </c>
@@ -42600,7 +42662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="862" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B862" s="1" t="s">
         <v>2067</v>
       </c>
@@ -42641,7 +42703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="863" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B863" s="1" t="s">
         <v>2075</v>
       </c>
@@ -42682,7 +42744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="864" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B864" s="1" t="s">
         <v>2075</v>
       </c>
@@ -42723,7 +42785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="865" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B865" s="1" t="s">
         <v>2075</v>
       </c>
@@ -42764,7 +42826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="866" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B866" s="1" t="s">
         <v>2083</v>
       </c>
@@ -42805,7 +42867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="867" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B867" s="1" t="s">
         <v>2083</v>
       </c>
@@ -42846,7 +42908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="868" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B868" s="1" t="s">
         <v>2083</v>
       </c>
@@ -42887,7 +42949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="869" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B869" s="1" t="s">
         <v>2091</v>
       </c>
@@ -42928,7 +42990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="870" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B870" s="1" t="s">
         <v>2091</v>
       </c>
@@ -42969,7 +43031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="871" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B871" s="1" t="s">
         <v>2091</v>
       </c>
@@ -43010,7 +43072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="872" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B872" s="1" t="s">
         <v>2099</v>
       </c>
@@ -43051,7 +43113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="873" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B873" s="1" t="s">
         <v>2099</v>
       </c>
@@ -43092,7 +43154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="874" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B874" s="1" t="s">
         <v>2099</v>
       </c>
@@ -43133,7 +43195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="875" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B875" s="1" t="s">
         <v>2107</v>
       </c>
@@ -43174,7 +43236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="876" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B876" s="1" t="s">
         <v>2107</v>
       </c>
@@ -43215,7 +43277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="877" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B877" s="1" t="s">
         <v>2107</v>
       </c>
@@ -43256,7 +43318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="878" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B878" s="1" t="s">
         <v>2115</v>
       </c>
@@ -43297,7 +43359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="879" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B879" s="1" t="s">
         <v>2115</v>
       </c>
@@ -43338,7 +43400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="880" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B880" s="1" t="s">
         <v>2115</v>
       </c>
@@ -43379,7 +43441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="881" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B881" s="1" t="s">
         <v>2123</v>
       </c>
@@ -43420,7 +43482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="882" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B882" s="1" t="s">
         <v>2123</v>
       </c>
@@ -43461,7 +43523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="883" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B883" s="1" t="s">
         <v>2123</v>
       </c>
@@ -43502,7 +43564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="884" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B884" s="1" t="s">
         <v>2131</v>
       </c>
@@ -43543,7 +43605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="885" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B885" s="1" t="s">
         <v>2131</v>
       </c>
@@ -43584,7 +43646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="886" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B886" s="1" t="s">
         <v>2131</v>
       </c>
@@ -43625,7 +43687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="887" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B887" s="1" t="s">
         <v>2139</v>
       </c>
@@ -43666,7 +43728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="888" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B888" s="1" t="s">
         <v>2139</v>
       </c>
@@ -43707,7 +43769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="889" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B889" s="1" t="s">
         <v>2139</v>
       </c>
@@ -43748,7 +43810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="890" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B890" s="1" t="s">
         <v>2147</v>
       </c>
@@ -43789,7 +43851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="891" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B891" s="1" t="s">
         <v>2147</v>
       </c>
@@ -43830,7 +43892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="892" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B892" s="1" t="s">
         <v>2147</v>
       </c>
@@ -43871,7 +43933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="893" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B893" s="1" t="s">
         <v>2155</v>
       </c>
@@ -43912,7 +43974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="894" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B894" s="1" t="s">
         <v>2155</v>
       </c>
@@ -43953,7 +44015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="895" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B895" s="1" t="s">
         <v>2155</v>
       </c>
@@ -43994,7 +44056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="896" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B896" s="1" t="s">
         <v>2163</v>
       </c>
@@ -44035,7 +44097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="897" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B897" s="1" t="s">
         <v>2163</v>
       </c>
@@ -44076,7 +44138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="898" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B898" s="1" t="s">
         <v>2163</v>
       </c>
@@ -44117,7 +44179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="899" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B899" s="1" t="s">
         <v>2171</v>
       </c>
@@ -44158,7 +44220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="900" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B900" s="1" t="s">
         <v>2171</v>
       </c>
@@ -44199,7 +44261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="901" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B901" s="1" t="s">
         <v>2171</v>
       </c>
